--- a/Issues&LearnCompleteDocument.xlsx
+++ b/Issues&LearnCompleteDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="5850"/>
   </bookViews>
   <sheets>
     <sheet name="issue" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>sno</t>
   </si>
@@ -124,22 +124,6 @@
     <t>1.An established connection was aborted by the software in your host machine
 2.Error creating bean with name 'hibernateDatastore'
 3.org.hibernate.tool.schema.extract.spi.SchemaExtractionException: More than one table found in namespace (, ) : depot</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Revoke the grand permisson from the table
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(REVOKE DELETE,INSERT,SELECT,UPDATE ON BILLING_HISTORY FROM ICORALDAM;)</t>
-    </r>
   </si>
   <si>
     <t>After service start</t>
@@ -219,6 +203,94 @@
 5.Click the General tab.
 6.Click Start.
 4.Click OK.</t>
+  </si>
+  <si>
+    <r>
+      <t>Navigate to  --&gt;C:\app\icoraladm\product\12.1.0\dbhome_1\NETWORK\ADMIN\tnsmane.org
+and give name to our connection 
+ICORALDAM =
+ (DESCRIPTION =
+    (ADDRESS = (PROTOCOL = TCP)(HOST = 10.1.193.52)(PORT = 1521))
+    (CONNECT_DATA =
+      (SERVER = DEDICATED)
+      (SERVICE_NAME =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orclclt52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+    )
+)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>need to create a connection name in tns(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orclclt52 - is SID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Revoke the grand permisson from the table
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(REVOKE DELETE,INSERT,SELECT,UPDATE ON BILLING_HISTORY FROM ICORALDAM;)
+Or
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove import options from the user both in (granted roles and alos in system Privilages)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -358,13 +430,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>95250</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>5286375</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>2457450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -410,13 +482,13 @@
         <xdr:from>
           <xdr:col>8</xdr:col>
           <xdr:colOff>76200</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
           <xdr:colOff>5000625</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>2647950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -462,13 +534,13 @@
         <xdr:from>
           <xdr:col>7</xdr:col>
           <xdr:colOff>104775</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
           <xdr:colOff>5295900</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>4</xdr:row>
           <xdr:rowOff>2076450</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -798,15 +870,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="44.140625" style="2" customWidth="1"/>
@@ -816,7 +888,7 @@
     <col min="9" max="9" width="76.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -865,87 +937,111 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>43732</v>
+        <v>43748</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>43731</v>
+        <v>43732</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43731</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43735</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43735</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
     </row>
@@ -988,13 +1084,13 @@
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>5286375</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>2457450</xdr:rowOff>
               </to>
             </anchor>
@@ -1013,13 +1109,13 @@
               <from>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>66675</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>5000625</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>2647950</xdr:rowOff>
               </to>
             </anchor>
@@ -1038,13 +1134,13 @@
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>5295900</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>2076450</xdr:rowOff>
               </to>
             </anchor>
